--- a/static/HSK4.xlsx
+++ b/static/HSK4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/git/vocabApp/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/Box/IBM Systems/git/vocabApp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8594183-28BF-B94D-849C-B873F0A58AC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335EF27-2233-6445-AE8A-C252ECB5AB4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
